--- a/results/CIFAR10/simplecnn/noise_0.05/SR-Adam/runs_and_aggregate.xlsx
+++ b/results/CIFAR10/simplecnn/noise_0.05/SR-Adam/runs_and_aggregate.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="aggregate" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="aggregate" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -487,7 +487,7 @@
         <v>47.27</v>
       </c>
       <c r="F2" t="n">
-        <v>35.0799355506897</v>
+        <v>30.55284309387207</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         <v>55.19</v>
       </c>
       <c r="F3" t="n">
-        <v>34.98968434333801</v>
+        <v>30.20093321800232</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +527,7 @@
         <v>58.99</v>
       </c>
       <c r="F4" t="n">
-        <v>34.97754549980164</v>
+        <v>30.34845042228699</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>64.42</v>
       </c>
       <c r="F5" t="n">
-        <v>34.89455199241638</v>
+        <v>30.17138481140137</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         <v>66.20999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>35.10599684715271</v>
+        <v>30.28632783889771</v>
       </c>
     </row>
     <row r="7">
@@ -587,7 +587,7 @@
         <v>67.16</v>
       </c>
       <c r="F7" t="n">
-        <v>34.79358148574829</v>
+        <v>30.19257831573486</v>
       </c>
     </row>
     <row r="8">
@@ -607,7 +607,7 @@
         <v>68.63</v>
       </c>
       <c r="F8" t="n">
-        <v>34.7541766166687</v>
+        <v>30.29971837997437</v>
       </c>
     </row>
     <row r="9">
@@ -627,7 +627,7 @@
         <v>70.23999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>34.88125658035278</v>
+        <v>30.15856862068176</v>
       </c>
     </row>
     <row r="10">
@@ -647,7 +647,7 @@
         <v>70.45999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>34.89670658111572</v>
+        <v>30.20747447013855</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>72.28</v>
       </c>
       <c r="F11" t="n">
-        <v>34.80243420600891</v>
+        <v>30.54825091362</v>
       </c>
     </row>
     <row r="12">
@@ -687,7 +687,7 @@
         <v>72.03</v>
       </c>
       <c r="F12" t="n">
-        <v>34.83410859107971</v>
+        <v>30.23139953613281</v>
       </c>
     </row>
     <row r="13">
@@ -707,7 +707,7 @@
         <v>73.34999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>34.99134850502014</v>
+        <v>29.75354814529419</v>
       </c>
     </row>
     <row r="14">
@@ -727,7 +727,7 @@
         <v>72.05</v>
       </c>
       <c r="F14" t="n">
-        <v>34.89965891838074</v>
+        <v>29.7736713886261</v>
       </c>
     </row>
     <row r="15">
@@ -747,7 +747,7 @@
         <v>74.01000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>34.94765758514404</v>
+        <v>29.64809727668763</v>
       </c>
     </row>
     <row r="16">
@@ -767,7 +767,7 @@
         <v>74.48999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>34.79607391357422</v>
+        <v>31.31631135940552</v>
       </c>
     </row>
     <row r="17">
@@ -787,7 +787,7 @@
         <v>74.95999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>35.23890900611877</v>
+        <v>31.40930461883545</v>
       </c>
     </row>
     <row r="18">
@@ -807,7 +807,7 @@
         <v>74.48</v>
       </c>
       <c r="F18" t="n">
-        <v>34.91754078865051</v>
+        <v>30.63635301589965</v>
       </c>
     </row>
     <row r="19">
@@ -827,7 +827,7 @@
         <v>74.98</v>
       </c>
       <c r="F19" t="n">
-        <v>34.97026133537292</v>
+        <v>30.10712838172913</v>
       </c>
     </row>
     <row r="20">
@@ -847,7 +847,7 @@
         <v>74.97</v>
       </c>
       <c r="F20" t="n">
-        <v>34.97200584411621</v>
+        <v>30.26243305206299</v>
       </c>
     </row>
     <row r="21">
@@ -867,7 +867,7 @@
         <v>75.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>35.06727170944214</v>
+        <v>30.42222666740417</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +938,7 @@
         <v>45.77</v>
       </c>
       <c r="F2" t="n">
-        <v>34.86462211608887</v>
+        <v>30.50125789642334</v>
       </c>
     </row>
     <row r="3">
@@ -958,7 +958,7 @@
         <v>54.77</v>
       </c>
       <c r="F3" t="n">
-        <v>35.00577640533447</v>
+        <v>30.1883978843689</v>
       </c>
     </row>
     <row r="4">
@@ -978,7 +978,7 @@
         <v>59.9</v>
       </c>
       <c r="F4" t="n">
-        <v>35.01259899139404</v>
+        <v>30.17468476295471</v>
       </c>
     </row>
     <row r="5">
@@ -998,7 +998,7 @@
         <v>64.11</v>
       </c>
       <c r="F5" t="n">
-        <v>34.88688039779663</v>
+        <v>30.22537612915039</v>
       </c>
     </row>
     <row r="6">
@@ -1018,7 +1018,7 @@
         <v>66.37</v>
       </c>
       <c r="F6" t="n">
-        <v>35.16446328163147</v>
+        <v>30.42898106575012</v>
       </c>
     </row>
     <row r="7">
@@ -1038,7 +1038,7 @@
         <v>68.27</v>
       </c>
       <c r="F7" t="n">
-        <v>35.02337598800659</v>
+        <v>30.36958050727844</v>
       </c>
     </row>
     <row r="8">
@@ -1058,7 +1058,7 @@
         <v>69.93000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>34.98794770240784</v>
+        <v>30.34351801872253</v>
       </c>
     </row>
     <row r="9">
@@ -1078,7 +1078,7 @@
         <v>70.76000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>35.0156033039093</v>
+        <v>30.50501132011414</v>
       </c>
     </row>
     <row r="10">
@@ -1098,7 +1098,7 @@
         <v>71.70999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>34.79086184501648</v>
+        <v>30.383305311203</v>
       </c>
     </row>
     <row r="11">
@@ -1118,7 +1118,7 @@
         <v>72.64</v>
       </c>
       <c r="F11" t="n">
-        <v>34.90372180938721</v>
+        <v>30.53819823265076</v>
       </c>
     </row>
     <row r="12">
@@ -1138,7 +1138,7 @@
         <v>72.72</v>
       </c>
       <c r="F12" t="n">
-        <v>34.97589206695557</v>
+        <v>29.88113451004028</v>
       </c>
     </row>
     <row r="13">
@@ -1158,7 +1158,7 @@
         <v>72.73</v>
       </c>
       <c r="F13" t="n">
-        <v>34.86905455589294</v>
+        <v>29.70088911056519</v>
       </c>
     </row>
     <row r="14">
@@ -1178,7 +1178,7 @@
         <v>73.19</v>
       </c>
       <c r="F14" t="n">
-        <v>34.91218829154968</v>
+        <v>29.89678835868835</v>
       </c>
     </row>
     <row r="15">
@@ -1198,7 +1198,7 @@
         <v>73.90000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>34.93605875968933</v>
+        <v>29.67514443397522</v>
       </c>
     </row>
     <row r="16">
@@ -1218,7 +1218,7 @@
         <v>74.40000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>35.11035704612732</v>
+        <v>31.10500454902649</v>
       </c>
     </row>
     <row r="17">
@@ -1238,7 +1238,7 @@
         <v>74.98</v>
       </c>
       <c r="F17" t="n">
-        <v>35.00443887710571</v>
+        <v>31.16188406944275</v>
       </c>
     </row>
     <row r="18">
@@ -1258,7 +1258,7 @@
         <v>74.54000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>34.78716683387756</v>
+        <v>30.62839341163636</v>
       </c>
     </row>
     <row r="19">
@@ -1278,7 +1278,7 @@
         <v>75.48</v>
       </c>
       <c r="F19" t="n">
-        <v>34.84410881996155</v>
+        <v>30.08226132392884</v>
       </c>
     </row>
     <row r="20">
@@ -1298,7 +1298,7 @@
         <v>75.43000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>35.03705787658691</v>
+        <v>30.33508777618408</v>
       </c>
     </row>
     <row r="21">
@@ -1318,7 +1318,7 @@
         <v>75.94</v>
       </c>
       <c r="F21" t="n">
-        <v>35.40046668052673</v>
+        <v>30.46755743026733</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1389,7 @@
         <v>47.92</v>
       </c>
       <c r="F2" t="n">
-        <v>35.11237764358521</v>
+        <v>30.68663883209229</v>
       </c>
     </row>
     <row r="3">
@@ -1409,7 +1409,7 @@
         <v>55.81</v>
       </c>
       <c r="F3" t="n">
-        <v>34.80281376838684</v>
+        <v>30.26375436782837</v>
       </c>
     </row>
     <row r="4">
@@ -1429,7 +1429,7 @@
         <v>58.98</v>
       </c>
       <c r="F4" t="n">
-        <v>35.30581188201904</v>
+        <v>30.32671761512756</v>
       </c>
     </row>
     <row r="5">
@@ -1449,7 +1449,7 @@
         <v>63.44</v>
       </c>
       <c r="F5" t="n">
-        <v>34.99989438056946</v>
+        <v>30.25673484802246</v>
       </c>
     </row>
     <row r="6">
@@ -1469,7 +1469,7 @@
         <v>67.45999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>35.06127882003784</v>
+        <v>30.36309003829956</v>
       </c>
     </row>
     <row r="7">
@@ -1489,7 +1489,7 @@
         <v>68.62</v>
       </c>
       <c r="F7" t="n">
-        <v>35.06551742553711</v>
+        <v>30.33768081665039</v>
       </c>
     </row>
     <row r="8">
@@ -1509,7 +1509,7 @@
         <v>69.56999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>35.00747966766357</v>
+        <v>30.32880067825317</v>
       </c>
     </row>
     <row r="9">
@@ -1529,7 +1529,7 @@
         <v>70.20999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>35.16304731369019</v>
+        <v>30.3119044303894</v>
       </c>
     </row>
     <row r="10">
@@ -1549,7 +1549,7 @@
         <v>71.81999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>35.02844166755676</v>
+        <v>30.26532864570618</v>
       </c>
     </row>
     <row r="11">
@@ -1569,7 +1569,7 @@
         <v>72.01000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>35.14850115776062</v>
+        <v>30.54590082168579</v>
       </c>
     </row>
     <row r="12">
@@ -1589,7 +1589,7 @@
         <v>73.17</v>
       </c>
       <c r="F12" t="n">
-        <v>35.01743960380554</v>
+        <v>30.13988280296326</v>
       </c>
     </row>
     <row r="13">
@@ -1609,7 +1609,7 @@
         <v>73.68000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>35.20110273361206</v>
+        <v>29.70302176475525</v>
       </c>
     </row>
     <row r="14">
@@ -1629,7 +1629,7 @@
         <v>74.45999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>35.04690337181091</v>
+        <v>29.76651787757873</v>
       </c>
     </row>
     <row r="15">
@@ -1649,7 +1649,7 @@
         <v>74.41</v>
       </c>
       <c r="F15" t="n">
-        <v>35.0770788192749</v>
+        <v>29.72830104827881</v>
       </c>
     </row>
     <row r="16">
@@ -1669,7 +1669,7 @@
         <v>74.64</v>
       </c>
       <c r="F16" t="n">
-        <v>35.17399930953979</v>
+        <v>31.13151144981384</v>
       </c>
     </row>
     <row r="17">
@@ -1689,7 +1689,7 @@
         <v>75.06999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>35.07827115058899</v>
+        <v>31.24899840354919</v>
       </c>
     </row>
     <row r="18">
@@ -1709,7 +1709,7 @@
         <v>75.73999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>35.16955184936523</v>
+        <v>30.64975023269653</v>
       </c>
     </row>
     <row r="19">
@@ -1729,7 +1729,7 @@
         <v>75.14</v>
       </c>
       <c r="F19" t="n">
-        <v>35.11912751197815</v>
+        <v>30.12477469444275</v>
       </c>
     </row>
     <row r="20">
@@ -1749,7 +1749,7 @@
         <v>75.8</v>
       </c>
       <c r="F20" t="n">
-        <v>35.14919376373291</v>
+        <v>30.2613615989685</v>
       </c>
     </row>
     <row r="21">
@@ -1769,7 +1769,7 @@
         <v>76.2</v>
       </c>
       <c r="F21" t="n">
-        <v>34.87746596336365</v>
+        <v>30.49258613586425</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1840,7 @@
         <v>47.9</v>
       </c>
       <c r="F2" t="n">
-        <v>34.92452049255371</v>
+        <v>30.54592967033386</v>
       </c>
     </row>
     <row r="3">
@@ -1860,7 +1860,7 @@
         <v>54.9</v>
       </c>
       <c r="F3" t="n">
-        <v>34.93339657783508</v>
+        <v>30.36660742759705</v>
       </c>
     </row>
     <row r="4">
@@ -1880,7 +1880,7 @@
         <v>61.01</v>
       </c>
       <c r="F4" t="n">
-        <v>34.82039141654968</v>
+        <v>30.36813998222351</v>
       </c>
     </row>
     <row r="5">
@@ -1900,7 +1900,7 @@
         <v>64.65000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>34.7335090637207</v>
+        <v>30.68802237510681</v>
       </c>
     </row>
     <row r="6">
@@ -1920,7 +1920,7 @@
         <v>65.56999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>34.87792706489563</v>
+        <v>30.30759692192078</v>
       </c>
     </row>
     <row r="7">
@@ -1940,7 +1940,7 @@
         <v>67.94</v>
       </c>
       <c r="F7" t="n">
-        <v>34.88292837142944</v>
+        <v>30.45486712455749</v>
       </c>
     </row>
     <row r="8">
@@ -1960,7 +1960,7 @@
         <v>68.89</v>
       </c>
       <c r="F8" t="n">
-        <v>34.9009006023407</v>
+        <v>30.34749221801757</v>
       </c>
     </row>
     <row r="9">
@@ -1980,7 +1980,7 @@
         <v>69.89</v>
       </c>
       <c r="F9" t="n">
-        <v>34.73164868354797</v>
+        <v>30.98499298095703</v>
       </c>
     </row>
     <row r="10">
@@ -2000,7 +2000,7 @@
         <v>71.08</v>
       </c>
       <c r="F10" t="n">
-        <v>34.93564772605896</v>
+        <v>30.33475375175476</v>
       </c>
     </row>
     <row r="11">
@@ -2020,7 +2020,7 @@
         <v>72.09999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>34.76993250846863</v>
+        <v>30.69737362861633</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +2040,7 @@
         <v>72.56999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>34.74687385559082</v>
+        <v>29.92249917984009</v>
       </c>
     </row>
     <row r="13">
@@ -2060,7 +2060,7 @@
         <v>72.81999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>34.81420254707336</v>
+        <v>29.80490612983704</v>
       </c>
     </row>
     <row r="14">
@@ -2080,7 +2080,7 @@
         <v>72.64</v>
       </c>
       <c r="F14" t="n">
-        <v>34.89013361930847</v>
+        <v>29.76012301445008</v>
       </c>
     </row>
     <row r="15">
@@ -2100,7 +2100,7 @@
         <v>72.95999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>35.10668802261353</v>
+        <v>29.82798790931702</v>
       </c>
     </row>
     <row r="16">
@@ -2120,7 +2120,7 @@
         <v>74.31999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>35.63674116134644</v>
+        <v>31.17224550247192</v>
       </c>
     </row>
     <row r="17">
@@ -2140,7 +2140,7 @@
         <v>74.73</v>
       </c>
       <c r="F17" t="n">
-        <v>35.26927638053894</v>
+        <v>31.318852186203</v>
       </c>
     </row>
     <row r="18">
@@ -2160,7 +2160,7 @@
         <v>74.66</v>
       </c>
       <c r="F18" t="n">
-        <v>35.4920597076416</v>
+        <v>30.60292482376098</v>
       </c>
     </row>
     <row r="19">
@@ -2180,7 +2180,7 @@
         <v>75.41</v>
       </c>
       <c r="F19" t="n">
-        <v>35.18712520599365</v>
+        <v>30.46082544326782</v>
       </c>
     </row>
     <row r="20">
@@ -2200,7 +2200,7 @@
         <v>75.81</v>
       </c>
       <c r="F20" t="n">
-        <v>35.21738171577454</v>
+        <v>30.48412680625916</v>
       </c>
     </row>
     <row r="21">
@@ -2220,7 +2220,7 @@
         <v>75.39</v>
       </c>
       <c r="F21" t="n">
-        <v>35.1328387260437</v>
+        <v>30.6363615989685</v>
       </c>
     </row>
   </sheetData>
@@ -2291,7 +2291,7 @@
         <v>48.66</v>
       </c>
       <c r="F2" t="n">
-        <v>35.11841297149658</v>
+        <v>30.51481199264526</v>
       </c>
     </row>
     <row r="3">
@@ -2311,7 +2311,7 @@
         <v>54.5</v>
       </c>
       <c r="F3" t="n">
-        <v>34.74941229820251</v>
+        <v>30.36656355857849</v>
       </c>
     </row>
     <row r="4">
@@ -2331,7 +2331,7 @@
         <v>59.15</v>
       </c>
       <c r="F4" t="n">
-        <v>35.37448668479919</v>
+        <v>30.27360200881958</v>
       </c>
     </row>
     <row r="5">
@@ -2351,7 +2351,7 @@
         <v>63.08</v>
       </c>
       <c r="F5" t="n">
-        <v>35.06024265289307</v>
+        <v>30.39195013046265</v>
       </c>
     </row>
     <row r="6">
@@ -2371,7 +2371,7 @@
         <v>65.69</v>
       </c>
       <c r="F6" t="n">
-        <v>34.97071695327759</v>
+        <v>30.42551565170288</v>
       </c>
     </row>
     <row r="7">
@@ -2391,7 +2391,7 @@
         <v>67.44</v>
       </c>
       <c r="F7" t="n">
-        <v>34.76434588432312</v>
+        <v>30.48582410812378</v>
       </c>
     </row>
     <row r="8">
@@ -2411,7 +2411,7 @@
         <v>68.41</v>
       </c>
       <c r="F8" t="n">
-        <v>34.98312878608704</v>
+        <v>30.34378623962402</v>
       </c>
     </row>
     <row r="9">
@@ -2431,7 +2431,7 @@
         <v>69.36</v>
       </c>
       <c r="F9" t="n">
-        <v>34.92863440513611</v>
+        <v>30.42120933532715</v>
       </c>
     </row>
     <row r="10">
@@ -2451,7 +2451,7 @@
         <v>70.36</v>
       </c>
       <c r="F10" t="n">
-        <v>35.00890755653381</v>
+        <v>30.2649827003479</v>
       </c>
     </row>
     <row r="11">
@@ -2471,7 +2471,7 @@
         <v>70.64</v>
       </c>
       <c r="F11" t="n">
-        <v>34.88131713867188</v>
+        <v>30.75757908821106</v>
       </c>
     </row>
     <row r="12">
@@ -2491,7 +2491,7 @@
         <v>72.48</v>
       </c>
       <c r="F12" t="n">
-        <v>35.02853679656982</v>
+        <v>29.87369394302368</v>
       </c>
     </row>
     <row r="13">
@@ -2511,7 +2511,7 @@
         <v>72.20999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>34.92112898826599</v>
+        <v>29.83626770973206</v>
       </c>
     </row>
     <row r="14">
@@ -2531,7 +2531,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>34.82175493240356</v>
+        <v>29.87786245346069</v>
       </c>
     </row>
     <row r="15">
@@ -2551,7 +2551,7 @@
         <v>73.20999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>34.87041115760803</v>
+        <v>29.8292543888092</v>
       </c>
     </row>
     <row r="16">
@@ -2571,7 +2571,7 @@
         <v>74.31</v>
       </c>
       <c r="F16" t="n">
-        <v>35.21949553489685</v>
+        <v>31.04256510734558</v>
       </c>
     </row>
     <row r="17">
@@ -2591,7 +2591,7 @@
         <v>74.5</v>
       </c>
       <c r="F17" t="n">
-        <v>35.33424210548401</v>
+        <v>31.25989723205566</v>
       </c>
     </row>
     <row r="18">
@@ -2611,7 +2611,7 @@
         <v>74.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>35.49244451522827</v>
+        <v>30.58058476448059</v>
       </c>
     </row>
     <row r="19">
@@ -2631,7 +2631,7 @@
         <v>75.12</v>
       </c>
       <c r="F19" t="n">
-        <v>35.26130986213684</v>
+        <v>30.41161751747132</v>
       </c>
     </row>
     <row r="20">
@@ -2651,7 +2651,7 @@
         <v>74.40000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>35.08414626121521</v>
+        <v>30.38379859924316</v>
       </c>
     </row>
     <row r="21">
@@ -2671,7 +2671,7 @@
         <v>75.34</v>
       </c>
       <c r="F21" t="n">
-        <v>35.10056567192078</v>
+        <v>30.67462277412415</v>
       </c>
     </row>
   </sheetData>
